--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shareable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7F8C88-2FAE-4A90-9E58-F8141DAE784B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC178652-5493-4E6A-BE6D-D69DB48FE175}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="11940" xr2:uid="{E6CF6B26-6F53-449B-A685-5B6C12C19AB8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="146">
   <si>
     <t>Project</t>
   </si>
@@ -216,9 +216,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>SBool</t>
-  </si>
-  <si>
     <t>SBoolean</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
   </si>
   <si>
     <t>Lexer</t>
-  </si>
-  <si>
-    <t>Token</t>
   </si>
   <si>
     <t>ClientStream</t>
@@ -846,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1199CB34-BACA-42ED-95C6-3BEADF0834FD}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,11 +1506,14 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
       </c>
+      <c r="F38" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1532,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1546,10 +1543,10 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1594,10 +1591,10 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
         <v>52</v>
@@ -1611,13 +1608,13 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
         <v>58</v>
-      </c>
-      <c r="F44" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1634,7 +1631,7 @@
         <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,7 +1648,7 @@
         <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1668,7 +1665,7 @@
         <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1682,9 +1679,6 @@
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1699,6 +1693,9 @@
         <v>18</v>
       </c>
       <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1710,14 +1707,14 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
       </c>
       <c r="E50" t="s">
         <v>72</v>
       </c>
-      <c r="F50" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1727,14 +1724,14 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
         <v>73</v>
       </c>
+      <c r="F51" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1744,14 +1741,14 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
       </c>
       <c r="E52" t="s">
         <v>74</v>
       </c>
-      <c r="F52" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -1761,14 +1758,14 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
         <v>75</v>
       </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1784,7 +1781,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1852,7 +1849,10 @@
         <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,7 @@
         <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,7 +1886,7 @@
         <v>82</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1900,13 +1897,13 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1917,13 +1914,13 @@
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1940,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,10 +1951,10 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,13 +1982,16 @@
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="G66" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2002,16 +2002,13 @@
         <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2024,12 +2021,12 @@
       <c r="C68" t="s">
         <v>18</v>
       </c>
-      <c r="D68" t="s">
-        <v>54</v>
-      </c>
       <c r="E68" t="s">
         <v>89</v>
       </c>
+      <c r="F68" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -2045,7 +2042,7 @@
         <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2079,7 +2076,7 @@
         <v>92</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2096,7 +2093,7 @@
         <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2113,7 +2110,7 @@
         <v>94</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2124,27 +2121,24 @@
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E74" t="s">
         <v>95</v>
       </c>
-      <c r="F74" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2158,7 +2152,7 @@
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2166,13 +2160,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2180,16 +2177,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,10 +2200,7 @@
         <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2220,7 +2214,10 @@
         <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -2237,7 +2234,7 @@
         <v>100</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,16 +2242,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
         <v>99</v>
-      </c>
-      <c r="C82" t="s">
-        <v>18</v>
       </c>
       <c r="E82" t="s">
         <v>101</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,30 +2262,24 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
         <v>102</v>
       </c>
-      <c r="F83" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
         <v>103</v>
@@ -2296,10 +2290,10 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E85" t="s">
         <v>104</v>
@@ -2310,10 +2304,10 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
         <v>105</v>
@@ -2324,13 +2318,16 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="F87" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,16 +2335,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -2364,7 +2361,7 @@
         <v>107</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2372,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -2381,7 +2378,7 @@
         <v>108</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,16 +2386,16 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -2415,7 +2412,7 @@
         <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2423,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -2432,55 +2429,52 @@
         <v>112</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
         <v>114</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" t="s">
         <v>115</v>
       </c>
-      <c r="C95" t="s">
-        <v>18</v>
-      </c>
       <c r="E95" t="s">
-        <v>116</v>
-      </c>
-      <c r="F95" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
         <v>114</v>
       </c>
-      <c r="B96" t="s">
-        <v>115</v>
-      </c>
       <c r="C96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
@@ -2488,75 +2482,75 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
         <v>114</v>
       </c>
-      <c r="B97" t="s">
-        <v>115</v>
-      </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="F97" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
         <v>114</v>
       </c>
-      <c r="B98" t="s">
-        <v>115</v>
-      </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
       <c r="E98" t="s">
-        <v>115</v>
-      </c>
-      <c r="F98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
         <v>114</v>
       </c>
-      <c r="B99" t="s">
-        <v>115</v>
-      </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
-      <c r="D99" t="s">
-        <v>115</v>
-      </c>
       <c r="E99" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F99" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
         <v>114</v>
       </c>
-      <c r="B100" t="s">
-        <v>115</v>
-      </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
-      </c>
-      <c r="F100" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
@@ -2564,87 +2558,87 @@
       <c r="E101" t="s">
         <v>122</v>
       </c>
+      <c r="G101" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="D102" t="s">
+        <v>122</v>
       </c>
       <c r="E102" t="s">
         <v>123</v>
       </c>
-      <c r="G102" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E103" t="s">
         <v>124</v>
       </c>
+      <c r="G103" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
-      </c>
-      <c r="D104" t="s">
-        <v>123</v>
       </c>
       <c r="E104" t="s">
         <v>125</v>
       </c>
+      <c r="F104" t="s">
+        <v>54</v>
+      </c>
       <c r="G104" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="E105" t="s">
         <v>126</v>
       </c>
-      <c r="G105" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -2652,39 +2646,42 @@
       <c r="E106" t="s">
         <v>127</v>
       </c>
-      <c r="F106" t="s">
-        <v>54</v>
-      </c>
       <c r="G106" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="G107" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="F108" t="s">
+        <v>54</v>
       </c>
       <c r="G108" t="s">
         <v>56</v>
@@ -2692,10 +2689,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
         <v>18</v>
@@ -2709,19 +2706,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
-      </c>
-      <c r="F110" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="G110" t="s">
         <v>56</v>
@@ -2729,16 +2723,19 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="F111" t="s">
+        <v>136</v>
       </c>
       <c r="G111" t="s">
         <v>56</v>
@@ -2746,15 +2743,18 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="E112" t="s">
+        <v>137</v>
+      </c>
+      <c r="F112" t="s">
         <v>136</v>
       </c>
       <c r="G112" t="s">
@@ -2763,18 +2763,15 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>137</v>
-      </c>
-      <c r="F113" t="s">
         <v>138</v>
       </c>
       <c r="G113" t="s">
@@ -2783,7 +2780,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
         <v>139</v>
@@ -2795,7 +2792,7 @@
         <v>139</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G114" t="s">
         <v>56</v>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
         <v>140</v>
@@ -2814,13 +2811,16 @@
       <c r="E115" t="s">
         <v>140</v>
       </c>
+      <c r="F115" t="s">
+        <v>136</v>
+      </c>
       <c r="G115" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
         <v>141</v>
@@ -2832,7 +2832,7 @@
         <v>141</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G116" t="s">
         <v>56</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
         <v>142</v>
@@ -2852,7 +2852,7 @@
         <v>142</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G117" t="s">
         <v>56</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
@@ -2871,8 +2871,8 @@
       <c r="E118" t="s">
         <v>143</v>
       </c>
-      <c r="F118" t="s">
-        <v>138</v>
+      <c r="F118" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="G118" t="s">
         <v>56</v>
@@ -2880,61 +2880,21 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
         <v>18</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
-      </c>
-      <c r="F119" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G119" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" t="s">
-        <v>145</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G120" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>135</v>
-      </c>
-      <c r="B121" t="s">
-        <v>138</v>
-      </c>
-      <c r="C121" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" t="s">
-        <v>138</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G121" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shareable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC178652-5493-4E6A-BE6D-D69DB48FE175}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5A768-841E-4873-B528-43A76E619913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="11940" xr2:uid="{E6CF6B26-6F53-449B-A685-5B6C12C19AB8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="145">
   <si>
     <t>Project</t>
   </si>
@@ -96,9 +96,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Shareable&lt;&gt;</t>
-  </si>
-  <si>
     <t>SearchRowSet</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>SLeaf&lt;&gt;</t>
   </si>
   <si>
-    <t>SSlot&lt;&gt;</t>
-  </si>
-  <si>
     <t>Serialisable</t>
   </si>
   <si>
@@ -469,6 +463,9 @@
   </si>
   <si>
     <t>UserControl</t>
+  </si>
+  <si>
+    <t>Collection&lt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -840,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1199CB34-BACA-42ED-95C6-3BEADF0834FD}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +1061,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1081,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1101,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1118,10 +1115,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1138,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1155,10 +1152,10 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
         <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1175,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1192,7 +1189,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1209,10 +1206,10 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
         <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1223,16 +1220,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1240,13 +1237,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1257,16 +1254,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,16 +1271,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
         <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,13 +1288,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,16 +1302,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1322,13 +1319,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1336,16 +1333,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
         <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,16 +1364,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
         <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,16 +1398,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1418,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
@@ -1426,13 +1423,19 @@
       <c r="E33" t="s">
         <v>51</v>
       </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -1440,11 +1443,8 @@
       <c r="E34" t="s">
         <v>53</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>54</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -1460,7 +1460,7 @@
       <c r="E35" t="s">
         <v>55</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1478,7 +1478,7 @@
         <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -1495,7 +1495,7 @@
         <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1503,16 +1503,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
         <v>61</v>
-      </c>
-      <c r="F38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1529,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,16 +1537,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,16 +1554,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,16 +1571,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,16 +1588,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1605,16 +1605,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1622,16 +1622,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,16 +1639,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,16 +1656,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,13 +1670,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,16 +1687,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1704,16 +1704,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
         <v>71</v>
       </c>
-      <c r="E50" t="s">
-        <v>72</v>
+      <c r="F50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1738,16 +1738,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
         <v>73</v>
       </c>
-      <c r="E52" t="s">
-        <v>74</v>
+      <c r="F52" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1755,16 +1755,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,16 +1772,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1789,16 +1789,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,16 +1823,19 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,18 +1843,15 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1860,16 +1860,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1877,16 +1877,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1894,16 +1894,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1911,16 +1911,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
         <v>83</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -1937,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,16 +1945,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,36 +1962,36 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
         <v>52</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" t="s">
-        <v>87</v>
       </c>
       <c r="F65" t="s">
         <v>52</v>
       </c>
+      <c r="G65" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
         <v>52</v>
       </c>
-      <c r="C66" t="s">
-        <v>20</v>
-      </c>
       <c r="E66" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" t="s">
-        <v>54</v>
-      </c>
-      <c r="G66" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1999,16 +1999,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
-      <c r="D67" t="s">
-        <v>54</v>
-      </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="F67" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2016,16 +2016,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,16 +2033,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,16 +2050,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2067,16 +2067,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2084,16 +2084,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,16 +2101,13 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2118,13 +2115,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2138,7 +2135,7 @@
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,13 +2143,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="F76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2160,16 +2160,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,16 +2177,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2202,22 +2199,25 @@
       <c r="E79" t="s">
         <v>97</v>
       </c>
+      <c r="F79" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
         <v>98</v>
       </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" t="s">
-        <v>99</v>
-      </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,16 +2225,19 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
       </c>
+      <c r="D81" t="s">
+        <v>97</v>
+      </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2242,19 +2245,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
-      </c>
-      <c r="F82" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,13 +2259,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,13 +2273,13 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2290,13 +2287,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2304,13 +2301,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,16 +2318,16 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F87" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,16 +2335,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2352,16 +2352,16 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -2378,7 +2378,7 @@
         <v>108</v>
       </c>
       <c r="F90" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2386,16 +2386,16 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
         <v>109</v>
       </c>
-      <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" t="s">
-        <v>110</v>
-      </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2403,21 +2403,21 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
         <v>112</v>
@@ -2426,100 +2426,100 @@
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" t="s">
         <v>113</v>
-      </c>
-      <c r="B94" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" t="s">
-        <v>18</v>
       </c>
       <c r="E94" t="s">
         <v>115</v>
       </c>
-      <c r="F94" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="F96" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
+      <c r="D97" t="s">
+        <v>112</v>
+      </c>
       <c r="E97" t="s">
-        <v>114</v>
-      </c>
-      <c r="F97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
-      </c>
-      <c r="D98" t="s">
-        <v>114</v>
       </c>
       <c r="E98" t="s">
         <v>117</v>
       </c>
+      <c r="F98" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -2527,172 +2527,172 @@
       <c r="E99" t="s">
         <v>119</v>
       </c>
-      <c r="F99" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="G100" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
       </c>
       <c r="E101" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" t="s">
         <v>122</v>
       </c>
-      <c r="C102" t="s">
-        <v>60</v>
-      </c>
-      <c r="D102" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" t="s">
-        <v>123</v>
+      <c r="G102" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
       </c>
-      <c r="D103" t="s">
-        <v>122</v>
-      </c>
       <c r="E103" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="F103" t="s">
+        <v>52</v>
       </c>
       <c r="G103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
-      </c>
-      <c r="F104" t="s">
-        <v>54</v>
-      </c>
-      <c r="G104" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="G105" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="E106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G106" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
         <v>129</v>
       </c>
-      <c r="C107" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" t="s">
-        <v>130</v>
+      <c r="F107" t="s">
+        <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>131</v>
-      </c>
-      <c r="F108" t="s">
+        <v>130</v>
+      </c>
+      <c r="G108" t="s">
         <v>54</v>
-      </c>
-      <c r="G108" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
         <v>18</v>
@@ -2701,29 +2701,32 @@
         <v>132</v>
       </c>
       <c r="G109" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" t="s">
         <v>133</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>133</v>
+      </c>
+      <c r="F110" t="s">
         <v>134</v>
       </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" t="s">
-        <v>134</v>
-      </c>
       <c r="G110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
         <v>135</v>
@@ -2735,167 +2738,147 @@
         <v>135</v>
       </c>
       <c r="F111" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="E112" t="s">
-        <v>137</v>
-      </c>
-      <c r="F112" t="s">
         <v>136</v>
       </c>
       <c r="G112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="F113" t="s">
+        <v>134</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G115" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
         <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" t="s">
+        <v>141</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C117" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" t="s">
-        <v>142</v>
-      </c>
-      <c r="F117" t="s">
-        <v>136</v>
-      </c>
       <c r="G117" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
       </c>
       <c r="E118" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="G118" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>133</v>
-      </c>
-      <c r="B119" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" t="s">
-        <v>136</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
